--- a/notebooks/sub_new_nodes_totram.xlsx
+++ b/notebooks/sub_new_nodes_totram.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M115"/>
+  <dimension ref="A1:M87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1021,29 +1021,29 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>POINT (544300.991693852 6861415.781777877)</t>
+          <t>POINT (542567.1127011032 6861713.358806675)</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>857</v>
+        <v>840</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Station RAI</t>
+          <t>Zuid</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>4.889539</v>
+        <v>4.8739633</v>
       </c>
       <c r="F12" t="n">
-        <v>52.337689</v>
+        <v>52.3393223</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>(4.889539, 52.337689)</t>
+          <t>(4.8739633, 52.3393223)</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -1058,51 +1058,43 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>50, 51</t>
+          <t>50, 51, 52</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>50, 51</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>50, 51, 4</t>
-        </is>
-      </c>
+          <t>50, 51, 52</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>POINT (542567.1127011032 6861713.358806675)</t>
+          <t>POINT (540742.3190802236 6861559.002901717)</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Zuid</t>
+          <t>Amstelveenseweg</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>4.8739633</v>
+        <v>4.8575709</v>
       </c>
       <c r="F13" t="n">
-        <v>52.3393223</v>
+        <v>52.3384751</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>(4.8739633, 52.3393223)</t>
+          <t>(4.8575709, 52.3384751)</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1117,43 +1109,51 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>50, 51, 52</t>
+          <t>50, 51</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>50, 51, 52</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
+          <t>50, 51</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>2, 24</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>50, 51, 2, 24</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>POINT (540742.3190802236 6861559.002901717)</t>
+          <t>POINT (538182.3270143489 6863000.593051337)</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>2</v>
       </c>
       <c r="C14" t="n">
-        <v>835</v>
+        <v>841</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Amstelveenseweg</t>
+          <t>Henk Sneevlietweg</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>4.8575709</v>
+        <v>4.8345741</v>
       </c>
       <c r="F14" t="n">
-        <v>52.3384751</v>
+        <v>52.3463868</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>(4.8575709, 52.3384751)</t>
+          <t>(4.8345741, 52.3463868)</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1176,43 +1176,35 @@
           <t>50, 51</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>2, 24</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>50, 51, 2, 24</t>
-        </is>
-      </c>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>POINT (540742.3190802236 6861559.002901717)</t>
+          <t>POINT (538163.0576104926 6864083.50866388)</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>2</v>
       </c>
       <c r="C15" t="n">
-        <v>835</v>
+        <v>19</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Amstelveenseweg</t>
+          <t>Heemstedestraat</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>4.8575709</v>
+        <v>4.834401</v>
       </c>
       <c r="F15" t="n">
-        <v>52.3384751</v>
+        <v>52.3523291</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>(4.8575709, 52.3384751)</t>
+          <t>(4.834401, 52.3523291)</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1237,41 +1229,41 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>2, 24</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>50, 51, 2, 24</t>
+          <t>50, 51, 2</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>POINT (538182.3270143489 6863000.593051337)</t>
+          <t>POINT (538170.3713010377 6865128.310398296)</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>2</v>
       </c>
       <c r="C16" t="n">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Henk Sneevlietweg</t>
+          <t>Lelylaan</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>4.8345741</v>
+        <v>4.8344667</v>
       </c>
       <c r="F16" t="n">
-        <v>52.3463868</v>
+        <v>52.3580615</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>(4.8345741, 52.3463868)</t>
+          <t>(4.8344667, 52.3580615)</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1294,35 +1286,43 @@
           <t>50, 51</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>1, 17</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>50, 51, 1, 17</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>POINT (538163.0576104926 6864083.50866388)</t>
+          <t>POINT (538122.2367532187 6866319.506687389)</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>2</v>
       </c>
       <c r="C17" t="n">
-        <v>19</v>
+        <v>848</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Heemstedestraat</t>
+          <t>Postjesweg</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>4.834401</v>
+        <v>4.8340343</v>
       </c>
       <c r="F17" t="n">
-        <v>52.3523291</v>
+        <v>52.3645962</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>(4.834401, 52.3523291)</t>
+          <t>(4.8340343, 52.3645962)</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1345,43 +1345,35 @@
           <t>50, 51</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>50, 51, 2</t>
-        </is>
-      </c>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>POINT (538163.0576104926 6864083.50866388)</t>
+          <t>POINT (538270.2471481774 6867775.387160625)</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>19</v>
+        <v>846</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Heemstedestraat</t>
+          <t>Jan van Galenstraat</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>4.834401</v>
+        <v>4.8353639</v>
       </c>
       <c r="F18" t="n">
-        <v>52.3523291</v>
+        <v>52.3725816</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>(4.834401, 52.3523291)</t>
+          <t>(4.8353639, 52.3725816)</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1406,41 +1398,41 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>13, 19, 7</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>50, 51, 2</t>
+          <t>50, 51, 13, 19, 7</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>POINT (538170.3713010377 6865128.310398296)</t>
+          <t>POINT (538589.6338992123 6869027.537464746)</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>2</v>
       </c>
       <c r="C19" t="n">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Lelylaan</t>
+          <t>De Vlugtlaan</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>4.8344667</v>
+        <v>4.838233</v>
       </c>
       <c r="F19" t="n">
-        <v>52.3580615</v>
+        <v>52.3794484</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>(4.8344667, 52.3580615)</t>
+          <t>(4.838233, 52.3794484)</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1465,41 +1457,41 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>1, 17</t>
+          <t>7</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>50, 51, 1, 17</t>
+          <t>50, 51, 7</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>POINT (538170.3713010377 6865128.310398296)</t>
+          <t>POINT (538672.6337115478 6870776.420804021)</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>2</v>
       </c>
       <c r="C20" t="n">
-        <v>843</v>
+        <v>121</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Lelylaan</t>
+          <t>Station Sloterdijk</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>4.8344667</v>
+        <v>4.8389786</v>
       </c>
       <c r="F20" t="n">
-        <v>52.3580615</v>
+        <v>52.3890375</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>(4.8344667, 52.3580615)</t>
+          <t>(4.8389786, 52.3890375)</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1524,41 +1516,41 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>1, 17</t>
+          <t>19</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>50, 51, 1, 17</t>
+          <t>50, 51, 19</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>POINT (538122.2367532187 6866319.506687389)</t>
+          <t>POINT (539965.8544999914 6871882.875834238)</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>2</v>
       </c>
       <c r="C21" t="n">
-        <v>848</v>
+        <v>805</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Postjesweg</t>
+          <t>Isolatorweg</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>4.8340343</v>
+        <v>4.8505958</v>
       </c>
       <c r="F21" t="n">
-        <v>52.3645962</v>
+        <v>52.3951031</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>(4.8340343, 52.3645962)</t>
+          <t>(4.8505958, 52.3951031)</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1587,34 +1579,34 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>POINT (538270.2471481774 6867775.387160625)</t>
+          <t>POINT (539965.9546875331 6871906.554933311)</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>2</v>
       </c>
       <c r="C22" t="n">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Jan van Galenstraat</t>
+          <t>Isolatorweg</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>4.8353639</v>
+        <v>4.8505967</v>
       </c>
       <c r="F22" t="n">
-        <v>52.3725816</v>
+        <v>52.3952329</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>(4.8353639, 52.3725816)</t>
+          <t>(4.8505967, 52.3952329)</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Metro 50: Gein =&gt; Isolatorweg</t>
+          <t>Metro 50: Isolatorweg =&gt; Gein</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1632,48 +1624,40 @@
           <t>50, 51</t>
         </is>
       </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>13, 19, 7</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>50, 51, 13, 19, 7</t>
-        </is>
-      </c>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>POINT (538270.2471481774 6867775.387160625)</t>
+          <t>POINT (538648.6554932309 6870776.201921342)</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>846</v>
+        <v>849</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Jan van Galenstraat</t>
+          <t>Station Sloterdijk</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>4.8353639</v>
+        <v>4.8387632</v>
       </c>
       <c r="F23" t="n">
-        <v>52.3725816</v>
+        <v>52.3890363</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>(4.8353639, 52.3725816)</t>
+          <t>(4.8387632, 52.3890363)</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Metro 50: Gein =&gt; Isolatorweg</t>
+          <t>Metro 50: Isolatorweg =&gt; Gein</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1693,26 +1677,26 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>13, 19, 7</t>
+          <t>19</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>50, 51, 13, 19, 7</t>
+          <t>50, 51, 19</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>POINT (538589.6338992123 6869027.537464746)</t>
+          <t>POINT (538569.9748771383 6869029.816997857)</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>2</v>
       </c>
       <c r="C24" t="n">
-        <v>844</v>
+        <v>806</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1720,19 +1704,19 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>4.838233</v>
+        <v>4.8380564</v>
       </c>
       <c r="F24" t="n">
-        <v>52.3794484</v>
+        <v>52.3794609</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>(4.838233, 52.3794484)</t>
+          <t>(4.8380564, 52.3794609)</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Metro 50: Gein =&gt; Isolatorweg</t>
+          <t>Metro 50: Isolatorweg =&gt; Gein</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1764,34 +1748,34 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>POINT (538589.6338992123 6869027.537464746)</t>
+          <t>POINT (538250.0871883947 6867775.842996311)</t>
         </is>
       </c>
       <c r="B25" t="n">
         <v>2</v>
       </c>
       <c r="C25" t="n">
-        <v>844</v>
+        <v>847</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>De Vlugtlaan</t>
+          <t>Jan van Galenstraat</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>4.838233</v>
+        <v>4.8351828</v>
       </c>
       <c r="F25" t="n">
-        <v>52.3794484</v>
+        <v>52.3725841</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>(4.838233, 52.3794484)</t>
+          <t>(4.8351828, 52.3725841)</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Metro 50: Gein =&gt; Isolatorweg</t>
+          <t>Metro 50: Isolatorweg =&gt; Gein</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -1811,46 +1795,46 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>13, 19, 7</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>50, 51, 7</t>
+          <t>50, 51, 13, 19, 7</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>POINT (538672.6337115478 6870776.420804021)</t>
+          <t>POINT (538102.9673493623 6866320.108281736)</t>
         </is>
       </c>
       <c r="B26" t="n">
         <v>2</v>
       </c>
       <c r="C26" t="n">
-        <v>121</v>
+        <v>147</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Station Sloterdijk</t>
+          <t>Postjesweg</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>4.8389786</v>
+        <v>4.8338612</v>
       </c>
       <c r="F26" t="n">
-        <v>52.3890375</v>
+        <v>52.3645995</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>(4.8389786, 52.3890375)</t>
+          <t>(4.8338612, 52.3645995)</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Metro 50: Gein =&gt; Isolatorweg</t>
+          <t>Metro 50: Isolatorweg =&gt; Gein</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -1868,48 +1852,40 @@
           <t>50, 51</t>
         </is>
       </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>50, 51, 19</t>
-        </is>
-      </c>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>POINT (539965.8544999914 6871882.875834238)</t>
+          <t>POINT (538146.6379856005 6865128.073441641)</t>
         </is>
       </c>
       <c r="B27" t="n">
         <v>2</v>
       </c>
       <c r="C27" t="n">
-        <v>805</v>
+        <v>842</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Isolatorweg</t>
+          <t>Lelylaan</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>4.8505958</v>
+        <v>4.8342535</v>
       </c>
       <c r="F27" t="n">
-        <v>52.3951031</v>
+        <v>52.3580602</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>(4.8505958, 52.3951031)</t>
+          <t>(4.8342535, 52.3580602)</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Metro 50: Gein =&gt; Isolatorweg</t>
+          <t>Metro 50: Isolatorweg =&gt; Gein</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -1927,35 +1903,43 @@
           <t>50, 51</t>
         </is>
       </c>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>1, 17</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>50, 51, 1, 17</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>POINT (539965.9546875331 6871906.554933311)</t>
+          <t>POINT (538143.487644011 6864082.834336273)</t>
         </is>
       </c>
       <c r="B28" t="n">
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>845</v>
+        <v>106</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Isolatorweg</t>
+          <t>Heemstedestraat</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>4.8505967</v>
+        <v>4.8342252</v>
       </c>
       <c r="F28" t="n">
-        <v>52.3952329</v>
+        <v>52.3523254</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>(4.8505967, 52.3952329)</t>
+          <t>(4.8342252, 52.3523254)</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1978,35 +1962,43 @@
           <t>50, 51</t>
         </is>
       </c>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>50, 51, 2</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>POINT (538648.6554932309 6870776.201921342)</t>
+          <t>POINT (538162.3896935479 6863000.265044158)</t>
         </is>
       </c>
       <c r="B29" t="n">
         <v>2</v>
       </c>
       <c r="C29" t="n">
-        <v>849</v>
+        <v>807</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Station Sloterdijk</t>
+          <t>Henk Sneevlietweg</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>4.8387632</v>
+        <v>4.834395</v>
       </c>
       <c r="F29" t="n">
-        <v>52.3890363</v>
+        <v>52.346385</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>(4.8387632, 52.3890363)</t>
+          <t>(4.834395, 52.346385)</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -2029,43 +2021,35 @@
           <t>50, 51</t>
         </is>
       </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>50, 51, 19</t>
-        </is>
-      </c>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>POINT (538569.9748771383 6869029.816997857)</t>
+          <t>POINT (540744.7124492757 6861534.261047471)</t>
         </is>
       </c>
       <c r="B30" t="n">
         <v>2</v>
       </c>
       <c r="C30" t="n">
-        <v>806</v>
+        <v>834</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>De Vlugtlaan</t>
+          <t>Amstelveenseweg</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>4.8380564</v>
+        <v>4.8575924</v>
       </c>
       <c r="F30" t="n">
-        <v>52.3794609</v>
+        <v>52.3383393</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>(4.8380564, 52.3794609)</t>
+          <t>(4.8575924, 52.3383393)</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -2090,41 +2074,41 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2, 24</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>50, 51, 7</t>
+          <t>50, 51, 2, 24</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>POINT (538569.9748771383 6869029.816997857)</t>
+          <t>POINT (542568.7602295671 6861661.031969329)</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>2</v>
       </c>
       <c r="C31" t="n">
-        <v>806</v>
+        <v>83</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>De Vlugtlaan</t>
+          <t>Zuid</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>4.8380564</v>
+        <v>4.8739781</v>
       </c>
       <c r="F31" t="n">
-        <v>52.3794609</v>
+        <v>52.3390351</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>(4.8380564, 52.3794609)</t>
+          <t>(4.8739781, 52.3390351)</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -2139,51 +2123,43 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>50, 51</t>
+          <t>50, 51, 52</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>50, 51</t>
-        </is>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>50, 51, 7</t>
-        </is>
-      </c>
+          <t>50, 51, 52</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>POINT (538250.0871883947 6867775.842996311)</t>
+          <t>POINT (544287.7780702949 6861400.6964292545)</t>
         </is>
       </c>
       <c r="B32" t="n">
         <v>2</v>
       </c>
       <c r="C32" t="n">
-        <v>847</v>
+        <v>858</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Jan van Galenstraat</t>
+          <t>Station RAI</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>4.8351828</v>
+        <v>4.8894203</v>
       </c>
       <c r="F32" t="n">
-        <v>52.3725841</v>
+        <v>52.3376062</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>(4.8351828, 52.3725841)</t>
+          <t>(4.8894203, 52.3376062)</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -2208,41 +2184,41 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>13, 19, 7</t>
+          <t>4</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>50, 51, 13, 19, 7</t>
+          <t>50, 51, 4</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>POINT (538250.0871883947 6867775.842996311)</t>
+          <t>POINT (547436.1604367066 6860317.339812671)</t>
         </is>
       </c>
       <c r="B33" t="n">
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>847</v>
+        <v>836</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Jan van Galenstraat</t>
+          <t>Overamstel</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>4.8351828</v>
+        <v>4.9177027</v>
       </c>
       <c r="F33" t="n">
-        <v>52.3725841</v>
+        <v>52.3316595</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>(4.8351828, 52.3725841)</t>
+          <t>(4.9177027, 52.3316595)</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -2265,43 +2241,35 @@
           <t>50, 51</t>
         </is>
       </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>13, 19, 7</t>
-        </is>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>50, 51, 13, 19, 7</t>
-        </is>
-      </c>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>POINT (538102.9673493623 6866320.108281736)</t>
+          <t>POINT (548813.3606490047 6859952.160839099)</t>
         </is>
       </c>
       <c r="B34" t="n">
         <v>2</v>
       </c>
       <c r="C34" t="n">
-        <v>147</v>
+        <v>825</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Postjesweg</t>
+          <t>Van der Madeweg</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>4.8338612</v>
+        <v>4.9300743</v>
       </c>
       <c r="F34" t="n">
-        <v>52.3645995</v>
+        <v>52.3296548</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>(4.8338612, 52.3645995)</t>
+          <t>(4.9300743, 52.3296548)</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -2316,12 +2284,12 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>50, 51</t>
+          <t>50, 53, 54</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>50, 51</t>
+          <t>50, 53, 54</t>
         </is>
       </c>
       <c r="L34" t="inlineStr"/>
@@ -2330,29 +2298,29 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>POINT (538146.6379856005 6865128.073441641)</t>
+          <t>POINT (549523.9908823817 6858842.917571281)</t>
         </is>
       </c>
       <c r="B35" t="n">
         <v>2</v>
       </c>
       <c r="C35" t="n">
-        <v>842</v>
+        <v>851</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Lelylaan</t>
+          <t>Duivendrecht</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>4.8342535</v>
+        <v>4.936458</v>
       </c>
       <c r="F35" t="n">
-        <v>52.3580602</v>
+        <v>52.3235649</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>(4.8342535, 52.3580602)</t>
+          <t>(4.936458, 52.3235649)</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2367,51 +2335,43 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>50, 51</t>
+          <t>50, 54</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>50, 51</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>1, 17</t>
-        </is>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>50, 51, 1, 17</t>
-        </is>
-      </c>
+          <t>50, 54</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>POINT (538146.6379856005 6865128.073441641)</t>
+          <t>POINT (550076.3359317997 6857895.375833282)</t>
         </is>
       </c>
       <c r="B36" t="n">
         <v>2</v>
       </c>
       <c r="C36" t="n">
-        <v>842</v>
+        <v>856</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Lelylaan</t>
+          <t>Strandvliet</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>4.8342535</v>
+        <v>4.9414198</v>
       </c>
       <c r="F36" t="n">
-        <v>52.3580602</v>
+        <v>52.3183621</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>(4.8342535, 52.3580602)</t>
+          <t>(4.9414198, 52.3183621)</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2426,51 +2386,43 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>50, 51</t>
+          <t>50, 54</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>50, 51</t>
-        </is>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>1, 17</t>
-        </is>
-      </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>50, 51, 1, 17</t>
-        </is>
-      </c>
+          <t>50, 54</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>POINT (538143.487644011 6864082.834336273)</t>
+          <t>POINT (550741.5923407294 6856687.889622317)</t>
         </is>
       </c>
       <c r="B37" t="n">
         <v>2</v>
       </c>
       <c r="C37" t="n">
-        <v>106</v>
+        <v>814</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Heemstedestraat</t>
+          <t>Bijlmer ArenA</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>4.8342252</v>
+        <v>4.9473959</v>
       </c>
       <c r="F37" t="n">
-        <v>52.3523254</v>
+        <v>52.3117311</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>(4.8342252, 52.3523254)</t>
+          <t>(4.9473959, 52.3117311)</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2485,51 +2437,43 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>50, 51</t>
+          <t>50, 54</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>50, 51</t>
-        </is>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>50, 51, 2</t>
-        </is>
-      </c>
+          <t>50, 54</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>POINT (538143.487644011 6864082.834336273)</t>
+          <t>POINT (551254.2853875268 6855788.155963545)</t>
         </is>
       </c>
       <c r="B38" t="n">
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>106</v>
+        <v>850</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Heemstedestraat</t>
+          <t>Bullewijk</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>4.8342252</v>
+        <v>4.9520015</v>
       </c>
       <c r="F38" t="n">
-        <v>52.3523254</v>
+        <v>52.3067895</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>(4.8342252, 52.3523254)</t>
+          <t>(4.9520015, 52.3067895)</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2544,51 +2488,43 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>50, 51</t>
+          <t>50, 54</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>50, 51</t>
-        </is>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>50, 51, 2</t>
-        </is>
-      </c>
+          <t>50, 54</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>POINT (538162.3896935479 6863000.265044158)</t>
+          <t>POINT (552139.9321243291 6854204.343641654)</t>
         </is>
       </c>
       <c r="B39" t="n">
         <v>2</v>
       </c>
       <c r="C39" t="n">
-        <v>807</v>
+        <v>853</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Henk Sneevlietweg</t>
+          <t>Holendrecht</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>4.834395</v>
+        <v>4.9599574</v>
       </c>
       <c r="F39" t="n">
-        <v>52.346385</v>
+        <v>52.2980894</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>(4.834395, 52.346385)</t>
+          <t>(4.9599574, 52.2980894)</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2603,12 +2539,12 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>50, 51</t>
+          <t>50, 54</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>50, 51</t>
+          <t>50, 54</t>
         </is>
       </c>
       <c r="L39" t="inlineStr"/>
@@ -2617,29 +2553,29 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>POINT (540744.7124492757 6861534.261047471)</t>
+          <t>POINT (553745.1591815681 6853750.562060571)</t>
         </is>
       </c>
       <c r="B40" t="n">
         <v>2</v>
       </c>
       <c r="C40" t="n">
-        <v>834</v>
+        <v>144</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Amstelveenseweg</t>
+          <t>Reigersbos</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>4.8575924</v>
+        <v>4.9743774</v>
       </c>
       <c r="F40" t="n">
-        <v>52.3383393</v>
+        <v>52.2955964</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>(4.8575924, 52.3383393)</t>
+          <t>(4.9743774, 52.2955964)</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2654,51 +2590,43 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>50, 51</t>
+          <t>50, 54</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>50, 51</t>
-        </is>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>2, 24</t>
-        </is>
-      </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>50, 51, 2, 24</t>
-        </is>
-      </c>
+          <t>50, 54</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>POINT (540744.7124492757 6861534.261047471)</t>
+          <t>POINT (555406.224095389 6853873.369981886)</t>
         </is>
       </c>
       <c r="B41" t="n">
         <v>2</v>
       </c>
       <c r="C41" t="n">
-        <v>834</v>
+        <v>323</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Amstelveenseweg</t>
+          <t>Gein</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>4.8575924</v>
+        <v>4.989299</v>
       </c>
       <c r="F41" t="n">
-        <v>52.3383393</v>
+        <v>52.2962711</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>(4.8575924, 52.3383393)</t>
+          <t>(4.989299, 52.2962711)</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2713,56 +2641,48 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>50, 51</t>
+          <t>50, 54</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>50, 51</t>
-        </is>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>2, 24</t>
-        </is>
-      </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>50, 51, 2, 24</t>
-        </is>
-      </c>
+          <t>50, 54</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>POINT (542568.7602295671 6861661.031969329)</t>
+          <t>POINT (547432.3199142742 6860323.588092956)</t>
         </is>
       </c>
       <c r="B42" t="n">
         <v>2</v>
       </c>
       <c r="C42" t="n">
-        <v>83</v>
+        <v>837</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Zuid</t>
+          <t>Overamstel</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>4.8739781</v>
+        <v>4.9176682</v>
       </c>
       <c r="F42" t="n">
-        <v>52.3390351</v>
+        <v>52.3316938</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>(4.8739781, 52.3390351)</t>
+          <t>(4.9176682, 52.3316938)</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Metro 50: Isolatorweg =&gt; Gein</t>
+          <t>Metro 51: Centraal Station =&gt; Isolatorweg</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -2772,12 +2692,12 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>50, 51, 52</t>
+          <t>50, 51</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>50, 51, 52</t>
+          <t>50, 51</t>
         </is>
       </c>
       <c r="L42" t="inlineStr"/>
@@ -2786,34 +2706,34 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>POINT (544287.7780702949 6861400.6964292545)</t>
+          <t>POINT (547780.994823337 6861879.615376292)</t>
         </is>
       </c>
       <c r="B43" t="n">
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>858</v>
+        <v>831</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Station RAI</t>
+          <t>Spaklerweg</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>4.8894203</v>
+        <v>4.9208004</v>
       </c>
       <c r="F43" t="n">
-        <v>52.3376062</v>
+        <v>52.3402348</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>(4.8894203, 52.3376062)</t>
+          <t>(4.9208004, 52.3402348)</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Metro 50: Isolatorweg =&gt; Gein</t>
+          <t>Metro 51: Centraal Station =&gt; Isolatorweg</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -2823,56 +2743,48 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>50, 51</t>
+          <t>51, 53, 54</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>50, 51</t>
-        </is>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>50, 51, 4</t>
-        </is>
-      </c>
+          <t>51, 53, 54</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>POINT (544287.7780702949 6861400.6964292545)</t>
+          <t>POINT (547403.1208118391 6863046.022174509)</t>
         </is>
       </c>
       <c r="B44" t="n">
         <v>2</v>
       </c>
       <c r="C44" t="n">
-        <v>858</v>
+        <v>819</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Station RAI</t>
+          <t>Amstelstation</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>4.8894203</v>
+        <v>4.9174059</v>
       </c>
       <c r="F44" t="n">
-        <v>52.3376062</v>
+        <v>52.3466361</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>(4.8894203, 52.3376062)</t>
+          <t>(4.9174059, 52.3466361)</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Metro 50: Isolatorweg =&gt; Gein</t>
+          <t>Metro 51: Centraal Station =&gt; Isolatorweg</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -2882,56 +2794,56 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>50, 51</t>
+          <t>51, 53, 54</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>50, 51</t>
+          <t>51, 53, 54</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>12</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>50, 51, 4</t>
+          <t>51, 53, 54, 12</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>POINT (547436.1604367066 6860317.339812671)</t>
+          <t>POINT (545562.1969967436 6868645.715657004)</t>
         </is>
       </c>
       <c r="B45" t="n">
         <v>2</v>
       </c>
       <c r="C45" t="n">
-        <v>836</v>
+        <v>731</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Overamstel</t>
+          <t>Centraal Station</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>4.9177027</v>
+        <v>4.9008686</v>
       </c>
       <c r="F45" t="n">
-        <v>52.3316595</v>
+        <v>52.3773546</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>(4.9177027, 52.3316595)</t>
+          <t>(4.9008686, 52.3773546)</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Metro 50: Isolatorweg =&gt; Gein</t>
+          <t>Metro 51: Centraal Station =&gt; Isolatorweg</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -2941,48 +2853,56 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>50, 51</t>
+          <t>51, 52, 53, 54</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>50, 51</t>
-        </is>
-      </c>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
+          <t>51, 52, 53, 54</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>12, 13, 14, 17, 2, 24, 26, 4</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>51, 52, 53, 54, 12, 13, 14, 17, 2, 24, 26, 4</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>POINT (548813.3606490047 6859952.160839099)</t>
+          <t>POINT (545569.9114374554 6867564.283310383)</t>
         </is>
       </c>
       <c r="B46" t="n">
         <v>2</v>
       </c>
       <c r="C46" t="n">
-        <v>825</v>
+        <v>867</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Van der Madeweg</t>
+          <t>Nieuwmarkt</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>4.9300743</v>
+        <v>4.9009379</v>
       </c>
       <c r="F46" t="n">
-        <v>52.3296548</v>
+        <v>52.3714238</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>(4.9300743, 52.3296548)</t>
+          <t>(4.9009379, 52.3714238)</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Metro 50: Isolatorweg =&gt; Gein</t>
+          <t>Metro 51: Centraal Station =&gt; Isolatorweg</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -2992,12 +2912,12 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>50, 53, 54</t>
+          <t>51, 53, 54</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>50, 53, 54</t>
+          <t>51, 53, 54</t>
         </is>
       </c>
       <c r="L46" t="inlineStr"/>
@@ -3006,34 +2926,34 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>POINT (549523.9908823817 6858842.917571281)</t>
+          <t>POINT (545866.9341027902 6866691.428179977)</t>
         </is>
       </c>
       <c r="B47" t="n">
         <v>2</v>
       </c>
       <c r="C47" t="n">
-        <v>851</v>
+        <v>459</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Duivendrecht</t>
+          <t>Waterlooplein</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>4.936458</v>
+        <v>4.9036061</v>
       </c>
       <c r="F47" t="n">
-        <v>52.3235649</v>
+        <v>52.3666363</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>(4.936458, 52.3235649)</t>
+          <t>(4.9036061, 52.3666363)</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Metro 50: Isolatorweg =&gt; Gein</t>
+          <t>Metro 51: Centraal Station =&gt; Isolatorweg</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -3043,48 +2963,56 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>50, 54</t>
+          <t>51, 53, 54</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>50, 54</t>
-        </is>
-      </c>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
+          <t>51, 53, 54</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>51, 53, 54, 14</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>POINT (550076.3359317997 6857895.375833282)</t>
+          <t>POINT (546339.0511951934 6865720.341024122)</t>
         </is>
       </c>
       <c r="B48" t="n">
         <v>2</v>
       </c>
       <c r="C48" t="n">
-        <v>856</v>
+        <v>460</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Strandvliet</t>
+          <t>Weesperplein</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>4.9414198</v>
+        <v>4.9078472</v>
       </c>
       <c r="F48" t="n">
-        <v>52.3183621</v>
+        <v>52.3613094</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>(4.9414198, 52.3183621)</t>
+          <t>(4.9078472, 52.3613094)</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Metro 50: Isolatorweg =&gt; Gein</t>
+          <t>Metro 51: Centraal Station =&gt; Isolatorweg</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3094,48 +3022,56 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>50, 54</t>
+          <t>51, 53, 54</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>50, 54</t>
-        </is>
-      </c>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
+          <t>51, 53, 54</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>1, 19, 7</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>51, 53, 54, 1, 19, 7</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>POINT (550741.5923407294 6856687.889622317)</t>
+          <t>POINT (546789.6836258738 6864490.1202636715)</t>
         </is>
       </c>
       <c r="B49" t="n">
         <v>2</v>
       </c>
       <c r="C49" t="n">
-        <v>814</v>
+        <v>260</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Bijlmer ArenA</t>
+          <t>Wibautstraat</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>4.9473959</v>
+        <v>4.9118953</v>
       </c>
       <c r="F49" t="n">
-        <v>52.3117311</v>
+        <v>52.3545601</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>(4.9473959, 52.3117311)</t>
+          <t>(4.9118953, 52.3545601)</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Metro 50: Isolatorweg =&gt; Gein</t>
+          <t>Metro 51: Centraal Station =&gt; Isolatorweg</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3145,12 +3081,12 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>50, 54</t>
+          <t>51, 53, 54</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>50, 54</t>
+          <t>51, 53, 54</t>
         </is>
       </c>
       <c r="L49" t="inlineStr"/>
@@ -3159,34 +3095,34 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>POINT (551254.2853875268 6855788.155963545)</t>
+          <t>POINT (547786.8057007563 6861881.601365915)</t>
         </is>
       </c>
       <c r="B50" t="n">
         <v>2</v>
       </c>
       <c r="C50" t="n">
-        <v>850</v>
+        <v>832</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Bullewijk</t>
+          <t>Spaklerweg</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>4.9520015</v>
+        <v>4.9208526</v>
       </c>
       <c r="F50" t="n">
-        <v>52.3067895</v>
+        <v>52.3402457</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>(4.9520015, 52.3067895)</t>
+          <t>(4.9208526, 52.3402457)</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Metro 50: Isolatorweg =&gt; Gein</t>
+          <t>Metro 51: Isolatorweg =&gt; Centraal Station</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3196,12 +3132,12 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>50, 54</t>
+          <t>51, 53, 54</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>50, 54</t>
+          <t>51, 53, 54</t>
         </is>
       </c>
       <c r="L50" t="inlineStr"/>
@@ -3210,34 +3146,34 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>POINT (552139.9321243291 6854204.343641654)</t>
+          <t>POINT (547411.0022317873 6863048.24534716)</t>
         </is>
       </c>
       <c r="B51" t="n">
         <v>2</v>
       </c>
       <c r="C51" t="n">
-        <v>853</v>
+        <v>820</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Holendrecht</t>
+          <t>Amstelstation</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>4.9599574</v>
+        <v>4.9174767</v>
       </c>
       <c r="F51" t="n">
-        <v>52.2980894</v>
+        <v>52.3466483</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>(4.9599574, 52.2980894)</t>
+          <t>(4.9174767, 52.3466483)</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Metro 50: Isolatorweg =&gt; Gein</t>
+          <t>Metro 51: Isolatorweg =&gt; Centraal Station</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -3247,48 +3183,56 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>50, 54</t>
+          <t>51, 53, 54</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>50, 54</t>
-        </is>
-      </c>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
+          <t>51, 53, 54</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>51, 53, 54, 12</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>POINT (553745.1591815681 6853750.562060571)</t>
+          <t>POINT (546806.7489038124 6864496.426459077)</t>
         </is>
       </c>
       <c r="B52" t="n">
         <v>2</v>
       </c>
       <c r="C52" t="n">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Reigersbos</t>
+          <t>Wibautstraat</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>4.9743774</v>
+        <v>4.9120486</v>
       </c>
       <c r="F52" t="n">
-        <v>52.2955964</v>
+        <v>52.3545947</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>(4.9743774, 52.2955964)</t>
+          <t>(4.9120486, 52.3545947)</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Metro 50: Isolatorweg =&gt; Gein</t>
+          <t>Metro 51: Isolatorweg =&gt; Centraal Station</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -3298,12 +3242,12 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>50, 54</t>
+          <t>51, 53, 54</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>50, 54</t>
+          <t>51, 53, 54</t>
         </is>
       </c>
       <c r="L52" t="inlineStr"/>
@@ -3312,34 +3256,34 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>POINT (555406.224095389 6853873.369981886)</t>
+          <t>POINT (546346.9548790398 6865723.4216876915)</t>
         </is>
       </c>
       <c r="B53" t="n">
         <v>2</v>
       </c>
       <c r="C53" t="n">
-        <v>323</v>
+        <v>138</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Gein</t>
+          <t>Weesperplein</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>4.989299</v>
+        <v>4.9079182</v>
       </c>
       <c r="F53" t="n">
-        <v>52.2962711</v>
+        <v>52.3613263</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>(4.989299, 52.2962711)</t>
+          <t>(4.9079182, 52.3613263)</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Metro 50: Isolatorweg =&gt; Gein</t>
+          <t>Metro 51: Isolatorweg =&gt; Centraal Station</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -3349,48 +3293,56 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>50, 54</t>
+          <t>51, 53, 54</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>50, 54</t>
-        </is>
-      </c>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
+          <t>51, 53, 54</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>1, 19, 7</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>51, 53, 54, 1, 19, 7</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>POINT (547432.3199142742 6860323.588092956)</t>
+          <t>POINT (545883.2535401405 6866701.309373403)</t>
         </is>
       </c>
       <c r="B54" t="n">
         <v>2</v>
       </c>
       <c r="C54" t="n">
-        <v>837</v>
+        <v>137</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Overamstel</t>
+          <t>Waterlooplein</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>4.9176682</v>
+        <v>4.9037527</v>
       </c>
       <c r="F54" t="n">
-        <v>52.3316938</v>
+        <v>52.3666905</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>(4.9176682, 52.3316938)</t>
+          <t>(4.9037527, 52.3666905)</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Metro 51: Centraal Station =&gt; Isolatorweg</t>
+          <t>Metro 51: Isolatorweg =&gt; Centraal Station</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -3400,48 +3352,56 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>50, 51</t>
+          <t>51, 53, 54</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>50, 51</t>
-        </is>
-      </c>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
+          <t>51, 53, 54</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>51, 53, 54, 14</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>POINT (547780.994823337 6861879.615376292)</t>
+          <t>POINT (545586.2420067549 6867551.374392843)</t>
         </is>
       </c>
       <c r="B55" t="n">
         <v>2</v>
       </c>
       <c r="C55" t="n">
-        <v>831</v>
+        <v>866</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Spaklerweg</t>
+          <t>Nieuwmarkt</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>4.9208004</v>
+        <v>4.9010846</v>
       </c>
       <c r="F55" t="n">
-        <v>52.3402348</v>
+        <v>52.371353</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>(4.9208004, 52.3402348)</t>
+          <t>(4.9010846, 52.371353)</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Metro 51: Centraal Station =&gt; Isolatorweg</t>
+          <t>Metro 51: Isolatorweg =&gt; Centraal Station</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -3465,34 +3425,34 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>POINT (547403.1208118391 6863046.022174509)</t>
+          <t>POINT (545582.0675258501 6868673.707041025)</t>
         </is>
       </c>
       <c r="B56" t="n">
         <v>2</v>
       </c>
       <c r="C56" t="n">
-        <v>819</v>
+        <v>728</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Amstelstation</t>
+          <t>Centraal Station</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>4.9174059</v>
+        <v>4.9010471</v>
       </c>
       <c r="F56" t="n">
-        <v>52.3466361</v>
+        <v>52.3775081</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>(4.9174059, 52.3466361)</t>
+          <t>(4.9010471, 52.3775081)</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Metro 51: Centraal Station =&gt; Isolatorweg</t>
+          <t>Metro 51: Isolatorweg =&gt; Centraal Station</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -3502,56 +3462,56 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>51, 53, 54</t>
+          <t>51, 52, 53, 54</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>51, 53, 54</t>
+          <t>51, 52, 53, 54</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>12, 13, 14, 17, 2, 24, 26, 4</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>51, 53, 54, 12</t>
+          <t>51, 52, 53, 54, 12, 13, 14, 17, 2, 24, 26, 4</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>POINT (547403.1208118391 6863046.022174509)</t>
+          <t>POINT (549072.4790277241 6873169.820906038)</t>
         </is>
       </c>
       <c r="B57" t="n">
         <v>2</v>
       </c>
       <c r="C57" t="n">
-        <v>819</v>
+        <v>630</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Amstelstation</t>
+          <t>Noord</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>4.9174059</v>
+        <v>4.932402</v>
       </c>
       <c r="F57" t="n">
-        <v>52.3466361</v>
+        <v>52.4021571</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>(4.9174059, 52.3466361)</t>
+          <t>(4.932402, 52.4021571)</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Metro 51: Centraal Station =&gt; Isolatorweg</t>
+          <t>Metro 52: Noord =&gt; Zuid</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -3561,56 +3521,44 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>51, 53, 54</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>51, 53, 54</t>
-        </is>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>51, 53, 54, 12</t>
-        </is>
-      </c>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>POINT (545562.1969967436 6868645.715657004)</t>
+          <t>POINT (547481.6567125937 6870714.531963056)</t>
         </is>
       </c>
       <c r="B58" t="n">
         <v>2</v>
       </c>
       <c r="C58" t="n">
-        <v>731</v>
+        <v>818</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Centraal Station</t>
+          <t>Noorderpark</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>4.9008686</v>
+        <v>4.9181114</v>
       </c>
       <c r="F58" t="n">
-        <v>52.3773546</v>
+        <v>52.3886982</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>(4.9008686, 52.3773546)</t>
+          <t>(4.9181114, 52.3886982)</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Metro 51: Centraal Station =&gt; Isolatorweg</t>
+          <t>Metro 52: Noord =&gt; Zuid</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -3620,36 +3568,24 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>51, 52, 53, 54</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>51, 52, 53, 54</t>
-        </is>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>12, 13, 14, 17, 2, 24, 26, 4</t>
-        </is>
-      </c>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>51, 52, 53, 54, 12, 13, 14, 17, 2, 24, 26, 4</t>
-        </is>
-      </c>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>POINT (545562.1969967436 6868645.715657004)</t>
+          <t>POINT (545563.2990597024 6868983.734081826)</t>
         </is>
       </c>
       <c r="B59" t="n">
         <v>2</v>
       </c>
       <c r="C59" t="n">
-        <v>731</v>
+        <v>816</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3657,19 +3593,19 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>4.9008686</v>
+        <v>4.9008785</v>
       </c>
       <c r="F59" t="n">
-        <v>52.3773546</v>
+        <v>52.3792082</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>(4.9008686, 52.3773546)</t>
+          <t>(4.9008785, 52.3792082)</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Metro 51: Centraal Station =&gt; Isolatorweg</t>
+          <t>Metro 52: Noord =&gt; Zuid</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -3701,34 +3637,34 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>POINT (545569.9114374554 6867564.283310383)</t>
+          <t>POINT (544637.7220215526 6867402.978026113)</t>
         </is>
       </c>
       <c r="B60" t="n">
         <v>2</v>
       </c>
       <c r="C60" t="n">
-        <v>867</v>
+        <v>813</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Nieuwmarkt</t>
+          <t>Rokin</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>4.9009379</v>
+        <v>4.8925639</v>
       </c>
       <c r="F60" t="n">
-        <v>52.3714238</v>
+        <v>52.3705391</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>(4.9009379, 52.3714238)</t>
+          <t>(4.8925639, 52.3705391)</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Metro 51: Centraal Station =&gt; Isolatorweg</t>
+          <t>Metro 52: Noord =&gt; Zuid</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -3738,48 +3674,52 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>51, 53, 54</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>51, 53, 54</t>
-        </is>
-      </c>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>14, 24, 4</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>52, 14, 24, 4</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>POINT (545866.9341027902 6866691.428179977)</t>
+          <t>POINT (544468.8503540193 6865606.813013325)</t>
         </is>
       </c>
       <c r="B61" t="n">
         <v>2</v>
       </c>
       <c r="C61" t="n">
-        <v>459</v>
+        <v>861</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Waterlooplein</t>
+          <t>Vijzelgracht</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>4.9036061</v>
+        <v>4.8910469</v>
       </c>
       <c r="F61" t="n">
-        <v>52.3666363</v>
+        <v>52.3606866</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>(4.9036061, 52.3666363)</t>
+          <t>(4.8910469, 52.3606866)</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Metro 51: Centraal Station =&gt; Isolatorweg</t>
+          <t>Metro 52: Noord =&gt; Zuid</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -3789,56 +3729,52 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>51, 53, 54</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>51, 53, 54</t>
-        </is>
-      </c>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>1, 19, 24, 7</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>51, 53, 54, 14</t>
+          <t>52, 1, 19, 24, 7</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>POINT (545866.9341027902 6866691.428179977)</t>
+          <t>POINT (544424.5229327853 6864380.327641273)</t>
         </is>
       </c>
       <c r="B62" t="n">
         <v>2</v>
       </c>
       <c r="C62" t="n">
-        <v>459</v>
+        <v>864</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Waterlooplein</t>
+          <t>De Pijp</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>4.9036061</v>
+        <v>4.8906487</v>
       </c>
       <c r="F62" t="n">
-        <v>52.3666363</v>
+        <v>52.3539577</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>(4.9036061, 52.3666363)</t>
+          <t>(4.8906487, 52.3539577)</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Metro 51: Centraal Station =&gt; Isolatorweg</t>
+          <t>Metro 52: Noord =&gt; Zuid</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -3848,56 +3784,44 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>51, 53, 54</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>51, 53, 54</t>
-        </is>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>51, 53, 54, 14</t>
-        </is>
-      </c>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>POINT (546339.0511951934 6865720.341024122)</t>
+          <t>POINT (544526.0240444907 6862051.560162962)</t>
         </is>
       </c>
       <c r="B63" t="n">
         <v>2</v>
       </c>
       <c r="C63" t="n">
-        <v>460</v>
+        <v>860</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Weesperplein</t>
+          <t>Europaplein</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>4.9078472</v>
+        <v>4.8915605</v>
       </c>
       <c r="F63" t="n">
-        <v>52.3613094</v>
+        <v>52.3411785</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>(4.9078472, 52.3613094)</t>
+          <t>(4.8915605, 52.3411785)</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Metro 51: Centraal Station =&gt; Isolatorweg</t>
+          <t>Metro 52: Noord =&gt; Zuid</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -3907,56 +3831,52 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>51, 53, 54</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>51, 53, 54</t>
-        </is>
-      </c>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr">
         <is>
-          <t>1, 19, 7</t>
+          <t>4</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>51, 53, 54, 1, 19, 7</t>
+          <t>52, 4</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>POINT (546339.0511951934 6865720.341024122)</t>
+          <t>POINT (542608.8018504054 6861693.645104517)</t>
         </is>
       </c>
       <c r="B64" t="n">
         <v>2</v>
       </c>
       <c r="C64" t="n">
-        <v>460</v>
+        <v>712</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Weesperplein</t>
+          <t>Zuid</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>4.9078472</v>
+        <v>4.8743378</v>
       </c>
       <c r="F64" t="n">
-        <v>52.3613094</v>
+        <v>52.3392141</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>(4.9078472, 52.3613094)</t>
+          <t>(4.8743378, 52.3392141)</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Metro 51: Centraal Station =&gt; Isolatorweg</t>
+          <t>Metro 52: Noord =&gt; Zuid</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -3966,56 +3886,48 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>51, 53, 54</t>
+          <t>50, 51, 52</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>51, 53, 54</t>
-        </is>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>1, 19, 7</t>
-        </is>
-      </c>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>51, 53, 54, 1, 19, 7</t>
-        </is>
-      </c>
+          <t>50, 51, 52</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>POINT (546789.6836258738 6864490.1202636715)</t>
+          <t>POINT (544511.4857189931 6862187.103415814)</t>
         </is>
       </c>
       <c r="B65" t="n">
         <v>2</v>
       </c>
       <c r="C65" t="n">
-        <v>260</v>
+        <v>859</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Wibautstraat</t>
+          <t>Europaplein</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>4.9118953</v>
+        <v>4.8914299</v>
       </c>
       <c r="F65" t="n">
-        <v>52.3545601</v>
+        <v>52.3419224</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>(4.9118953, 52.3545601)</t>
+          <t>(4.8914299, 52.3419224)</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Metro 51: Centraal Station =&gt; Isolatorweg</t>
+          <t>Metro 52: Zuid =&gt; Noord</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -4025,48 +3937,52 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>51, 53, 54</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>51, 53, 54</t>
-        </is>
-      </c>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>52, 4</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>POINT (547786.8057007563 6861881.601365915)</t>
+          <t>POINT (544424.4004813455 6864380.473447215)</t>
         </is>
       </c>
       <c r="B66" t="n">
         <v>2</v>
       </c>
       <c r="C66" t="n">
-        <v>832</v>
+        <v>863</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Spaklerweg</t>
+          <t>De Pijp</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>4.9208526</v>
+        <v>4.8906476</v>
       </c>
       <c r="F66" t="n">
-        <v>52.3402457</v>
+        <v>52.3539585</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>(4.9208526, 52.3402457)</t>
+          <t>(4.8906476, 52.3539585)</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Metro 51: Isolatorweg =&gt; Centraal Station</t>
+          <t>Metro 52: Zuid =&gt; Noord</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -4076,48 +3992,44 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>51, 53, 54</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>51, 53, 54</t>
-        </is>
-      </c>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>POINT (547411.0022317873 6863048.24534716)</t>
+          <t>POINT (544488.1976815191 6865603.076167982)</t>
         </is>
       </c>
       <c r="B67" t="n">
         <v>2</v>
       </c>
       <c r="C67" t="n">
-        <v>820</v>
+        <v>862</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Amstelstation</t>
+          <t>Vijzelgracht</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>4.9174767</v>
+        <v>4.8912207</v>
       </c>
       <c r="F67" t="n">
-        <v>52.3466483</v>
+        <v>52.3606661</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>(4.9174767, 52.3466483)</t>
+          <t>(4.8912207, 52.3606661)</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Metro 51: Isolatorweg =&gt; Centraal Station</t>
+          <t>Metro 52: Zuid =&gt; Noord</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -4127,56 +4039,52 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>51, 53, 54</t>
-        </is>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>51, 53, 54</t>
-        </is>
-      </c>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>1, 19, 24, 7</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>51, 53, 54, 12</t>
+          <t>52, 1, 19, 24, 7</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>POINT (547411.0022317873 6863048.24534716)</t>
+          <t>POINT (544660.9543992812 6867385.529462318)</t>
         </is>
       </c>
       <c r="B68" t="n">
         <v>2</v>
       </c>
       <c r="C68" t="n">
-        <v>820</v>
+        <v>865</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Amstelstation</t>
+          <t>Rokin</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>4.9174767</v>
+        <v>4.8927726</v>
       </c>
       <c r="F68" t="n">
-        <v>52.3466483</v>
+        <v>52.3704434</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>(4.9174767, 52.3466483)</t>
+          <t>(4.8927726, 52.3704434)</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Metro 51: Isolatorweg =&gt; Centraal Station</t>
+          <t>Metro 52: Zuid =&gt; Noord</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -4186,56 +4094,52 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>51, 53, 54</t>
-        </is>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>51, 53, 54</t>
-        </is>
-      </c>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14, 24, 4</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>51, 53, 54, 12</t>
+          <t>52, 14, 24, 4</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>POINT (546806.7489038124 6864496.426459077)</t>
+          <t>POINT (545569.8223818629 6868980.123322341)</t>
         </is>
       </c>
       <c r="B69" t="n">
         <v>2</v>
       </c>
       <c r="C69" t="n">
-        <v>139</v>
+        <v>815</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Wibautstraat</t>
+          <t>Centraal Station</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>4.9120486</v>
+        <v>4.9009371</v>
       </c>
       <c r="F69" t="n">
-        <v>52.3545947</v>
+        <v>52.3791884</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>(4.9120486, 52.3545947)</t>
+          <t>(4.9009371, 52.3791884)</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Metro 51: Isolatorweg =&gt; Centraal Station</t>
+          <t>Metro 52: Zuid =&gt; Noord</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -4245,48 +4149,56 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>51, 53, 54</t>
+          <t>51, 52, 53, 54</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>51, 53, 54</t>
-        </is>
-      </c>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
+          <t>51, 52, 53, 54</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>12, 13, 14, 17, 2, 24, 26, 4</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>51, 52, 53, 54, 12, 13, 14, 17, 2, 24, 26, 4</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>POINT (546346.9548790398 6865723.4216876915)</t>
+          <t>POINT (547499.9242410329 6870695.5440585865)</t>
         </is>
       </c>
       <c r="B70" t="n">
         <v>2</v>
       </c>
       <c r="C70" t="n">
-        <v>138</v>
+        <v>817</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Weesperplein</t>
+          <t>Noorderpark</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>4.9079182</v>
+        <v>4.9182755</v>
       </c>
       <c r="F70" t="n">
-        <v>52.3613263</v>
+        <v>52.3885941</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>(4.9079182, 52.3613263)</t>
+          <t>(4.9182755, 52.3885941)</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Metro 51: Isolatorweg =&gt; Centraal Station</t>
+          <t>Metro 52: Zuid =&gt; Noord</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -4296,56 +4208,44 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>51, 53, 54</t>
-        </is>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>51, 53, 54</t>
-        </is>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>1, 19, 7</t>
-        </is>
-      </c>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>51, 53, 54, 1, 19, 7</t>
-        </is>
-      </c>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>POINT (546346.9548790398 6865723.4216876915)</t>
+          <t>POINT (549092.8504945394 6873151.648262058)</t>
         </is>
       </c>
       <c r="B71" t="n">
         <v>2</v>
       </c>
       <c r="C71" t="n">
-        <v>138</v>
+        <v>716</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Weesperplein</t>
+          <t>Noord</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>4.9079182</v>
+        <v>4.932585</v>
       </c>
       <c r="F71" t="n">
-        <v>52.3613263</v>
+        <v>52.4020575</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>(4.9079182, 52.3613263)</t>
+          <t>(4.932585, 52.4020575)</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Metro 51: Isolatorweg =&gt; Centraal Station</t>
+          <t>Metro 52: Zuid =&gt; Noord</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -4355,56 +4255,44 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>51, 53, 54</t>
-        </is>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>51, 53, 54</t>
-        </is>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>1, 19, 7</t>
-        </is>
-      </c>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>51, 53, 54, 1, 19, 7</t>
-        </is>
-      </c>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>POINT (545883.2535401405 6866701.309373403)</t>
+          <t>POINT (547760.256002202 6861871.616762494)</t>
         </is>
       </c>
       <c r="B72" t="n">
         <v>2</v>
       </c>
       <c r="C72" t="n">
-        <v>137</v>
+        <v>830</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Waterlooplein</t>
+          <t>Spaklerweg</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>4.9037527</v>
+        <v>4.9206141</v>
       </c>
       <c r="F72" t="n">
-        <v>52.3666905</v>
+        <v>52.3401909</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>(4.9037527, 52.3666905)</t>
+          <t>(4.9206141, 52.3401909)</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Metro 51: Isolatorweg =&gt; Centraal Station</t>
+          <t>Metro 53: Centraal Station =&gt; Gaasperplas</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -4422,48 +4310,40 @@
           <t>51, 53, 54</t>
         </is>
       </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>51, 53, 54, 14</t>
-        </is>
-      </c>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>POINT (545883.2535401405 6866701.309373403)</t>
+          <t>POINT (548831.7061010874 6859963.56389288)</t>
         </is>
       </c>
       <c r="B73" t="n">
         <v>2</v>
       </c>
       <c r="C73" t="n">
-        <v>137</v>
+        <v>826</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Waterlooplein</t>
+          <t>Van der Madeweg</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>4.9037527</v>
+        <v>4.9302391</v>
       </c>
       <c r="F73" t="n">
-        <v>52.3666905</v>
+        <v>52.3297174</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>(4.9037527, 52.3666905)</t>
+          <t>(4.9302391, 52.3297174)</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Metro 51: Isolatorweg =&gt; Centraal Station</t>
+          <t>Metro 53: Centraal Station =&gt; Gaasperplas</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -4473,56 +4353,48 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>51, 53, 54</t>
+          <t>50, 53, 54</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>51, 53, 54</t>
-        </is>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="M73" t="inlineStr">
-        <is>
-          <t>51, 53, 54, 14</t>
-        </is>
-      </c>
+          <t>50, 53, 54</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>POINT (545586.2420067549 6867551.374392843)</t>
+          <t>POINT (550631.7422672147 6859417.783746803)</t>
         </is>
       </c>
       <c r="B74" t="n">
         <v>2</v>
       </c>
       <c r="C74" t="n">
-        <v>866</v>
+        <v>811</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Nieuwmarkt</t>
+          <t>Venserpolder</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>4.9010846</v>
+        <v>4.9464091</v>
       </c>
       <c r="F74" t="n">
-        <v>52.371353</v>
+        <v>52.3267211</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>(4.9010846, 52.371353)</t>
+          <t>(4.9464091, 52.3267211)</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Metro 51: Isolatorweg =&gt; Centraal Station</t>
+          <t>Metro 53: Centraal Station =&gt; Gaasperplas</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -4532,48 +4404,44 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>51, 53, 54</t>
-        </is>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>51, 53, 54</t>
-        </is>
-      </c>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
       <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>POINT (545582.0675258501 6868673.707041025)</t>
+          <t>POINT (551785.6467129305 6860071.747980665)</t>
         </is>
       </c>
       <c r="B75" t="n">
         <v>2</v>
       </c>
       <c r="C75" t="n">
-        <v>728</v>
+        <v>822</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Centraal Station</t>
+          <t>Station Diemen Zuid</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>4.9010471</v>
+        <v>4.9567748</v>
       </c>
       <c r="F75" t="n">
-        <v>52.3775081</v>
+        <v>52.3303113</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>(4.9010471, 52.3775081)</t>
+          <t>(4.9567748, 52.3303113)</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Metro 51: Isolatorweg =&gt; Centraal Station</t>
+          <t>Metro 53: Centraal Station =&gt; Gaasperplas</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -4583,56 +4451,44 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>51, 52, 53, 54</t>
-        </is>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>51, 52, 53, 54</t>
-        </is>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>12, 13, 14, 17, 2, 24, 26, 4</t>
-        </is>
-      </c>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>51, 52, 53, 54, 12, 13, 14, 17, 2, 24, 26, 4</t>
-        </is>
-      </c>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>POINT (545582.0675258501 6868673.707041025)</t>
+          <t>POINT (552946.8648491914 6859703.574633856)</t>
         </is>
       </c>
       <c r="B76" t="n">
         <v>2</v>
       </c>
       <c r="C76" t="n">
-        <v>728</v>
+        <v>54</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Centraal Station</t>
+          <t>Verrijn Stuartweg</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>4.9010471</v>
+        <v>4.9672062</v>
       </c>
       <c r="F76" t="n">
-        <v>52.3775081</v>
+        <v>52.3282901</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>(4.9010471, 52.3775081)</t>
+          <t>(4.9672062, 52.3282901)</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Metro 51: Isolatorweg =&gt; Centraal Station</t>
+          <t>Metro 53: Centraal Station =&gt; Gaasperplas</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -4642,56 +4498,44 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>51, 52, 53, 54</t>
-        </is>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>51, 52, 53, 54</t>
-        </is>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>12, 13, 14, 17, 2, 24, 26, 4</t>
-        </is>
-      </c>
-      <c r="M76" t="inlineStr">
-        <is>
-          <t>51, 52, 53, 54, 12, 13, 14, 17, 2, 24, 26, 4</t>
-        </is>
-      </c>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>POINT (549072.4790277241 6873169.820906038)</t>
+          <t>POINT (553579.2374805408 6858863.571390007)</t>
         </is>
       </c>
       <c r="B77" t="n">
         <v>2</v>
       </c>
       <c r="C77" t="n">
-        <v>630</v>
+        <v>56</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Noord</t>
+          <t>Ganzenhoef</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>4.932402</v>
+        <v>4.9728869</v>
       </c>
       <c r="F77" t="n">
-        <v>52.4021571</v>
+        <v>52.3236783</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>(4.932402, 52.4021571)</t>
+          <t>(4.9728869, 52.3236783)</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Metro 52: Noord =&gt; Zuid</t>
+          <t>Metro 53: Centraal Station =&gt; Gaasperplas</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -4701,7 +4545,7 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>53</t>
         </is>
       </c>
       <c r="K77" t="inlineStr"/>
@@ -4711,34 +4555,34 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>POINT (547481.6567125937 6870714.531963056)</t>
+          <t>POINT (554260.5572919919 6857643.484120411)</t>
         </is>
       </c>
       <c r="B78" t="n">
         <v>2</v>
       </c>
       <c r="C78" t="n">
-        <v>818</v>
+        <v>812</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Noorderpark</t>
+          <t>Kraaiennest</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>4.9181114</v>
+        <v>4.9790073</v>
       </c>
       <c r="F78" t="n">
-        <v>52.3886982</v>
+        <v>52.3169789</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>(4.9181114, 52.3886982)</t>
+          <t>(4.9790073, 52.3169789)</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Metro 52: Noord =&gt; Zuid</t>
+          <t>Metro 53: Centraal Station =&gt; Gaasperplas</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -4748,7 +4592,7 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>53</t>
         </is>
       </c>
       <c r="K78" t="inlineStr"/>
@@ -4758,34 +4602,34 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>POINT (545563.2990597024 6868983.734081826)</t>
+          <t>POINT (554854.0905530034 6856584.175521632)</t>
         </is>
       </c>
       <c r="B79" t="n">
         <v>2</v>
       </c>
       <c r="C79" t="n">
-        <v>816</v>
+        <v>61</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Centraal Station</t>
+          <t>Gaasperplas</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>4.9008785</v>
+        <v>4.9843391</v>
       </c>
       <c r="F79" t="n">
-        <v>52.3792082</v>
+        <v>52.3111615</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>(4.9008785, 52.3792082)</t>
+          <t>(4.9843391, 52.3111615)</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Metro 52: Noord =&gt; Zuid</t>
+          <t>Metro 53: Centraal Station =&gt; Gaasperplas</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -4795,56 +4639,44 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>51, 52, 53, 54</t>
-        </is>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>51, 52, 53, 54</t>
-        </is>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>12, 13, 14, 17, 2, 24, 26, 4</t>
-        </is>
-      </c>
-      <c r="M79" t="inlineStr">
-        <is>
-          <t>51, 52, 53, 54, 12, 13, 14, 17, 2, 24, 26, 4</t>
-        </is>
-      </c>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>POINT (545563.2990597024 6868983.734081826)</t>
+          <t>POINT (554842.658041299 6856646.265439138)</t>
         </is>
       </c>
       <c r="B80" t="n">
         <v>2</v>
       </c>
       <c r="C80" t="n">
-        <v>816</v>
+        <v>331</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Centraal Station</t>
+          <t>Gaasperplas</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>4.9008785</v>
+        <v>4.9842364</v>
       </c>
       <c r="F80" t="n">
-        <v>52.3792082</v>
+        <v>52.3115025</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>(4.9008785, 52.3792082)</t>
+          <t>(4.9842364, 52.3115025)</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Metro 52: Noord =&gt; Zuid</t>
+          <t>Metro 53: Gaasperplas =&gt; Centraal Station</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -4854,56 +4686,44 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>51, 52, 53, 54</t>
-        </is>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>51, 52, 53, 54</t>
-        </is>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>12, 13, 14, 17, 2, 24, 26, 4</t>
-        </is>
-      </c>
-      <c r="M80" t="inlineStr">
-        <is>
-          <t>51, 52, 53, 54, 12, 13, 14, 17, 2, 24, 26, 4</t>
-        </is>
-      </c>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>POINT (544637.7220215526 6867402.978026113)</t>
+          <t>POINT (554280.5168766911 6857654.337591772)</t>
         </is>
       </c>
       <c r="B81" t="n">
         <v>2</v>
       </c>
       <c r="C81" t="n">
-        <v>813</v>
+        <v>821</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Rokin</t>
+          <t>Kraaiennest</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>4.8925639</v>
+        <v>4.9791866</v>
       </c>
       <c r="F81" t="n">
-        <v>52.3705391</v>
+        <v>52.3170385</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>(4.8925639, 52.3705391)</t>
+          <t>(4.9791866, 52.3170385)</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Metro 52: Noord =&gt; Zuid</t>
+          <t>Metro 53: Gaasperplas =&gt; Centraal Station</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -4913,52 +4733,44 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>53</t>
         </is>
       </c>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>14, 24, 4</t>
-        </is>
-      </c>
-      <c r="M81" t="inlineStr">
-        <is>
-          <t>52, 14, 24, 4</t>
-        </is>
-      </c>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>POINT (544637.7220215526 6867402.978026113)</t>
+          <t>POINT (553601.3900592086 6858871.840217633)</t>
         </is>
       </c>
       <c r="B82" t="n">
         <v>2</v>
       </c>
       <c r="C82" t="n">
-        <v>813</v>
+        <v>301</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Rokin</t>
+          <t>Ganzenhoef</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>4.8925639</v>
+        <v>4.9730859</v>
       </c>
       <c r="F82" t="n">
-        <v>52.3705391</v>
+        <v>52.3237237</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>(4.8925639, 52.3705391)</t>
+          <t>(4.9730859, 52.3237237)</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Metro 52: Noord =&gt; Zuid</t>
+          <t>Metro 53: Gaasperplas =&gt; Centraal Station</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -4968,52 +4780,44 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>53</t>
         </is>
       </c>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>14, 24, 4</t>
-        </is>
-      </c>
-      <c r="M82" t="inlineStr">
-        <is>
-          <t>52, 14, 24, 4</t>
-        </is>
-      </c>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>POINT (544468.8503540193 6865606.813013325)</t>
+          <t>POINT (552961.2250635037 6859717.545678315)</t>
         </is>
       </c>
       <c r="B83" t="n">
         <v>2</v>
       </c>
       <c r="C83" t="n">
-        <v>861</v>
+        <v>824</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Vijzelgracht</t>
+          <t>Verrijn Stuartweg</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>4.8910469</v>
+        <v>4.9673352</v>
       </c>
       <c r="F83" t="n">
-        <v>52.3606866</v>
+        <v>52.3283668</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>(4.8910469, 52.3606866)</t>
+          <t>(4.9673352, 52.3283668)</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Metro 52: Noord =&gt; Zuid</t>
+          <t>Metro 53: Gaasperplas =&gt; Centraal Station</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -5023,52 +4827,44 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>53</t>
         </is>
       </c>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>1, 19, 24, 7</t>
-        </is>
-      </c>
-      <c r="M83" t="inlineStr">
-        <is>
-          <t>52, 1, 19, 24, 7</t>
-        </is>
-      </c>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>POINT (544468.8503540193 6865606.813013325)</t>
+          <t>POINT (551775.9619172314 6860088.943901429)</t>
         </is>
       </c>
       <c r="B84" t="n">
         <v>2</v>
       </c>
       <c r="C84" t="n">
-        <v>861</v>
+        <v>823</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Vijzelgracht</t>
+          <t>Station Diemen Zuid</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>4.8910469</v>
+        <v>4.9566878</v>
       </c>
       <c r="F84" t="n">
-        <v>52.3606866</v>
+        <v>52.3304057</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>(4.8910469, 52.3606866)</t>
+          <t>(4.9566878, 52.3304057)</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Metro 52: Noord =&gt; Zuid</t>
+          <t>Metro 53: Gaasperplas =&gt; Centraal Station</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -5078,52 +4874,44 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>53</t>
         </is>
       </c>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>1, 19, 24, 7</t>
-        </is>
-      </c>
-      <c r="M84" t="inlineStr">
-        <is>
-          <t>52, 1, 19, 24, 7</t>
-        </is>
-      </c>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>POINT (544424.5229327853 6864380.327641273)</t>
+          <t>POINT (550617.070358328 6859438.092962224)</t>
         </is>
       </c>
       <c r="B85" t="n">
         <v>2</v>
       </c>
       <c r="C85" t="n">
-        <v>864</v>
+        <v>829</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>De Pijp</t>
+          <t>Venserpolder</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>4.8906487</v>
+        <v>4.9462773</v>
       </c>
       <c r="F85" t="n">
-        <v>52.3539577</v>
+        <v>52.3268326</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>(4.8906487, 52.3539577)</t>
+          <t>(4.9462773, 52.3268326)</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Metro 52: Noord =&gt; Zuid</t>
+          <t>Metro 53: Gaasperplas =&gt; Centraal Station</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -5133,7 +4921,7 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>53</t>
         </is>
       </c>
       <c r="K85" t="inlineStr"/>
@@ -5143,34 +4931,34 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>POINT (544526.0240444907 6862051.560162962)</t>
+          <t>POINT (548836.7711379185 6859966.806297703)</t>
         </is>
       </c>
       <c r="B86" t="n">
         <v>2</v>
       </c>
       <c r="C86" t="n">
-        <v>860</v>
+        <v>827</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Europaplein</t>
+          <t>Van der Madeweg</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>4.8915605</v>
+        <v>4.9302846</v>
       </c>
       <c r="F86" t="n">
-        <v>52.3411785</v>
+        <v>52.3297352</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>(4.8915605, 52.3411785)</t>
+          <t>(4.9302846, 52.3297352)</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Metro 52: Noord =&gt; Zuid</t>
+          <t>Metro 53: Gaasperplas =&gt; Centraal Station</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -5180,52 +4968,48 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>52</t>
-        </is>
-      </c>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="M86" t="inlineStr">
-        <is>
-          <t>52, 4</t>
-        </is>
-      </c>
+          <t>50, 53, 54</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>50, 53, 54</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>POINT (544526.0240444907 6862051.560162962)</t>
+          <t>POINT (547808.2680985812 6861889.144486921)</t>
         </is>
       </c>
       <c r="B87" t="n">
         <v>2</v>
       </c>
       <c r="C87" t="n">
-        <v>860</v>
+        <v>833</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Europaplein</t>
+          <t>Spaklerweg</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>4.8915605</v>
+        <v>4.9210454</v>
       </c>
       <c r="F87" t="n">
-        <v>52.3411785</v>
+        <v>52.3402871</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>(4.8915605, 52.3411785)</t>
+          <t>(4.9210454, 52.3402871)</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Metro 52: Noord =&gt; Zuid</t>
+          <t>Metro 53: Gaasperplas =&gt; Centraal Station</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -5235,1428 +5019,16 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>52</t>
-        </is>
-      </c>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="M87" t="inlineStr">
-        <is>
-          <t>52, 4</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>POINT (542608.8018504054 6861693.645104517)</t>
-        </is>
-      </c>
-      <c r="B88" t="n">
-        <v>2</v>
-      </c>
-      <c r="C88" t="n">
-        <v>712</v>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>Zuid</t>
-        </is>
-      </c>
-      <c r="E88" t="n">
-        <v>4.8743378</v>
-      </c>
-      <c r="F88" t="n">
-        <v>52.3392141</v>
-      </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>(4.8743378, 52.3392141)</t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>Metro 52: Noord =&gt; Zuid</t>
-        </is>
-      </c>
-      <c r="I88" t="inlineStr">
-        <is>
-          <t>subway</t>
-        </is>
-      </c>
-      <c r="J88" t="inlineStr">
-        <is>
-          <t>50, 51, 52</t>
-        </is>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>50, 51, 52</t>
-        </is>
-      </c>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>POINT (544511.4857189931 6862187.103415814)</t>
-        </is>
-      </c>
-      <c r="B89" t="n">
-        <v>2</v>
-      </c>
-      <c r="C89" t="n">
-        <v>859</v>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>Europaplein</t>
-        </is>
-      </c>
-      <c r="E89" t="n">
-        <v>4.8914299</v>
-      </c>
-      <c r="F89" t="n">
-        <v>52.3419224</v>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>(4.8914299, 52.3419224)</t>
-        </is>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>Metro 52: Zuid =&gt; Noord</t>
-        </is>
-      </c>
-      <c r="I89" t="inlineStr">
-        <is>
-          <t>subway</t>
-        </is>
-      </c>
-      <c r="J89" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
-      </c>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="M89" t="inlineStr">
-        <is>
-          <t>52, 4</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>POINT (544511.4857189931 6862187.103415814)</t>
-        </is>
-      </c>
-      <c r="B90" t="n">
-        <v>2</v>
-      </c>
-      <c r="C90" t="n">
-        <v>859</v>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>Europaplein</t>
-        </is>
-      </c>
-      <c r="E90" t="n">
-        <v>4.8914299</v>
-      </c>
-      <c r="F90" t="n">
-        <v>52.3419224</v>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>(4.8914299, 52.3419224)</t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>Metro 52: Zuid =&gt; Noord</t>
-        </is>
-      </c>
-      <c r="I90" t="inlineStr">
-        <is>
-          <t>subway</t>
-        </is>
-      </c>
-      <c r="J90" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
-      </c>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="M90" t="inlineStr">
-        <is>
-          <t>52, 4</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>POINT (544424.4004813455 6864380.473447215)</t>
-        </is>
-      </c>
-      <c r="B91" t="n">
-        <v>2</v>
-      </c>
-      <c r="C91" t="n">
-        <v>863</v>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>De Pijp</t>
-        </is>
-      </c>
-      <c r="E91" t="n">
-        <v>4.8906476</v>
-      </c>
-      <c r="F91" t="n">
-        <v>52.3539585</v>
-      </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>(4.8906476, 52.3539585)</t>
-        </is>
-      </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>Metro 52: Zuid =&gt; Noord</t>
-        </is>
-      </c>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t>subway</t>
-        </is>
-      </c>
-      <c r="J91" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
-      </c>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr"/>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>POINT (544488.1976815191 6865603.076167982)</t>
-        </is>
-      </c>
-      <c r="B92" t="n">
-        <v>2</v>
-      </c>
-      <c r="C92" t="n">
-        <v>862</v>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>Vijzelgracht</t>
-        </is>
-      </c>
-      <c r="E92" t="n">
-        <v>4.8912207</v>
-      </c>
-      <c r="F92" t="n">
-        <v>52.3606661</v>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>(4.8912207, 52.3606661)</t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>Metro 52: Zuid =&gt; Noord</t>
-        </is>
-      </c>
-      <c r="I92" t="inlineStr">
-        <is>
-          <t>subway</t>
-        </is>
-      </c>
-      <c r="J92" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
-      </c>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>1, 19, 24, 7</t>
-        </is>
-      </c>
-      <c r="M92" t="inlineStr">
-        <is>
-          <t>52, 1, 19, 24, 7</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>POINT (544488.1976815191 6865603.076167982)</t>
-        </is>
-      </c>
-      <c r="B93" t="n">
-        <v>2</v>
-      </c>
-      <c r="C93" t="n">
-        <v>862</v>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>Vijzelgracht</t>
-        </is>
-      </c>
-      <c r="E93" t="n">
-        <v>4.8912207</v>
-      </c>
-      <c r="F93" t="n">
-        <v>52.3606661</v>
-      </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>(4.8912207, 52.3606661)</t>
-        </is>
-      </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>Metro 52: Zuid =&gt; Noord</t>
-        </is>
-      </c>
-      <c r="I93" t="inlineStr">
-        <is>
-          <t>subway</t>
-        </is>
-      </c>
-      <c r="J93" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
-      </c>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>1, 19, 24, 7</t>
-        </is>
-      </c>
-      <c r="M93" t="inlineStr">
-        <is>
-          <t>52, 1, 19, 24, 7</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>POINT (544660.9543992812 6867385.529462318)</t>
-        </is>
-      </c>
-      <c r="B94" t="n">
-        <v>2</v>
-      </c>
-      <c r="C94" t="n">
-        <v>865</v>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>Rokin</t>
-        </is>
-      </c>
-      <c r="E94" t="n">
-        <v>4.8927726</v>
-      </c>
-      <c r="F94" t="n">
-        <v>52.3704434</v>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>(4.8927726, 52.3704434)</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>Metro 52: Zuid =&gt; Noord</t>
-        </is>
-      </c>
-      <c r="I94" t="inlineStr">
-        <is>
-          <t>subway</t>
-        </is>
-      </c>
-      <c r="J94" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
-      </c>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>14, 24, 4</t>
-        </is>
-      </c>
-      <c r="M94" t="inlineStr">
-        <is>
-          <t>52, 14, 24, 4</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>POINT (544660.9543992812 6867385.529462318)</t>
-        </is>
-      </c>
-      <c r="B95" t="n">
-        <v>2</v>
-      </c>
-      <c r="C95" t="n">
-        <v>865</v>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>Rokin</t>
-        </is>
-      </c>
-      <c r="E95" t="n">
-        <v>4.8927726</v>
-      </c>
-      <c r="F95" t="n">
-        <v>52.3704434</v>
-      </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>(4.8927726, 52.3704434)</t>
-        </is>
-      </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>Metro 52: Zuid =&gt; Noord</t>
-        </is>
-      </c>
-      <c r="I95" t="inlineStr">
-        <is>
-          <t>subway</t>
-        </is>
-      </c>
-      <c r="J95" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
-      </c>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>14, 24, 4</t>
-        </is>
-      </c>
-      <c r="M95" t="inlineStr">
-        <is>
-          <t>52, 14, 24, 4</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>POINT (545569.8223818629 6868980.123322341)</t>
-        </is>
-      </c>
-      <c r="B96" t="n">
-        <v>2</v>
-      </c>
-      <c r="C96" t="n">
-        <v>815</v>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>Centraal Station</t>
-        </is>
-      </c>
-      <c r="E96" t="n">
-        <v>4.9009371</v>
-      </c>
-      <c r="F96" t="n">
-        <v>52.3791884</v>
-      </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>(4.9009371, 52.3791884)</t>
-        </is>
-      </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>Metro 52: Zuid =&gt; Noord</t>
-        </is>
-      </c>
-      <c r="I96" t="inlineStr">
-        <is>
-          <t>subway</t>
-        </is>
-      </c>
-      <c r="J96" t="inlineStr">
-        <is>
-          <t>51, 52, 53, 54</t>
-        </is>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>51, 52, 53, 54</t>
-        </is>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>12, 13, 14, 17, 2, 24, 26, 4</t>
-        </is>
-      </c>
-      <c r="M96" t="inlineStr">
-        <is>
-          <t>51, 52, 53, 54, 12, 13, 14, 17, 2, 24, 26, 4</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>POINT (545569.8223818629 6868980.123322341)</t>
-        </is>
-      </c>
-      <c r="B97" t="n">
-        <v>2</v>
-      </c>
-      <c r="C97" t="n">
-        <v>815</v>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>Centraal Station</t>
-        </is>
-      </c>
-      <c r="E97" t="n">
-        <v>4.9009371</v>
-      </c>
-      <c r="F97" t="n">
-        <v>52.3791884</v>
-      </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>(4.9009371, 52.3791884)</t>
-        </is>
-      </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>Metro 52: Zuid =&gt; Noord</t>
-        </is>
-      </c>
-      <c r="I97" t="inlineStr">
-        <is>
-          <t>subway</t>
-        </is>
-      </c>
-      <c r="J97" t="inlineStr">
-        <is>
-          <t>51, 52, 53, 54</t>
-        </is>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>51, 52, 53, 54</t>
-        </is>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>12, 13, 14, 17, 2, 24, 26, 4</t>
-        </is>
-      </c>
-      <c r="M97" t="inlineStr">
-        <is>
-          <t>51, 52, 53, 54, 12, 13, 14, 17, 2, 24, 26, 4</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>POINT (547499.9242410329 6870695.5440585865)</t>
-        </is>
-      </c>
-      <c r="B98" t="n">
-        <v>2</v>
-      </c>
-      <c r="C98" t="n">
-        <v>817</v>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>Noorderpark</t>
-        </is>
-      </c>
-      <c r="E98" t="n">
-        <v>4.9182755</v>
-      </c>
-      <c r="F98" t="n">
-        <v>52.3885941</v>
-      </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>(4.9182755, 52.3885941)</t>
-        </is>
-      </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>Metro 52: Zuid =&gt; Noord</t>
-        </is>
-      </c>
-      <c r="I98" t="inlineStr">
-        <is>
-          <t>subway</t>
-        </is>
-      </c>
-      <c r="J98" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
-      </c>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr"/>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>POINT (549092.8504945394 6873151.648262058)</t>
-        </is>
-      </c>
-      <c r="B99" t="n">
-        <v>2</v>
-      </c>
-      <c r="C99" t="n">
-        <v>716</v>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>Noord</t>
-        </is>
-      </c>
-      <c r="E99" t="n">
-        <v>4.932585</v>
-      </c>
-      <c r="F99" t="n">
-        <v>52.4020575</v>
-      </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>(4.932585, 52.4020575)</t>
-        </is>
-      </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>Metro 52: Zuid =&gt; Noord</t>
-        </is>
-      </c>
-      <c r="I99" t="inlineStr">
-        <is>
-          <t>subway</t>
-        </is>
-      </c>
-      <c r="J99" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
-      </c>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr"/>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>POINT (547760.256002202 6861871.616762494)</t>
-        </is>
-      </c>
-      <c r="B100" t="n">
-        <v>2</v>
-      </c>
-      <c r="C100" t="n">
-        <v>830</v>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>Spaklerweg</t>
-        </is>
-      </c>
-      <c r="E100" t="n">
-        <v>4.9206141</v>
-      </c>
-      <c r="F100" t="n">
-        <v>52.3401909</v>
-      </c>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>(4.9206141, 52.3401909)</t>
-        </is>
-      </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>Metro 53: Centraal Station =&gt; Gaasperplas</t>
-        </is>
-      </c>
-      <c r="I100" t="inlineStr">
-        <is>
-          <t>subway</t>
-        </is>
-      </c>
-      <c r="J100" t="inlineStr">
-        <is>
           <t>51, 53, 54</t>
         </is>
       </c>
-      <c r="K100" t="inlineStr">
+      <c r="K87" t="inlineStr">
         <is>
           <t>51, 53, 54</t>
         </is>
       </c>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr"/>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>POINT (548831.7061010874 6859963.56389288)</t>
-        </is>
-      </c>
-      <c r="B101" t="n">
-        <v>2</v>
-      </c>
-      <c r="C101" t="n">
-        <v>826</v>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>Van der Madeweg</t>
-        </is>
-      </c>
-      <c r="E101" t="n">
-        <v>4.9302391</v>
-      </c>
-      <c r="F101" t="n">
-        <v>52.3297174</v>
-      </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>(4.9302391, 52.3297174)</t>
-        </is>
-      </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>Metro 53: Centraal Station =&gt; Gaasperplas</t>
-        </is>
-      </c>
-      <c r="I101" t="inlineStr">
-        <is>
-          <t>subway</t>
-        </is>
-      </c>
-      <c r="J101" t="inlineStr">
-        <is>
-          <t>50, 53, 54</t>
-        </is>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>50, 53, 54</t>
-        </is>
-      </c>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr"/>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>POINT (550631.7422672147 6859417.783746803)</t>
-        </is>
-      </c>
-      <c r="B102" t="n">
-        <v>2</v>
-      </c>
-      <c r="C102" t="n">
-        <v>811</v>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>Venserpolder</t>
-        </is>
-      </c>
-      <c r="E102" t="n">
-        <v>4.9464091</v>
-      </c>
-      <c r="F102" t="n">
-        <v>52.3267211</v>
-      </c>
-      <c r="G102" t="inlineStr">
-        <is>
-          <t>(4.9464091, 52.3267211)</t>
-        </is>
-      </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>Metro 53: Centraal Station =&gt; Gaasperplas</t>
-        </is>
-      </c>
-      <c r="I102" t="inlineStr">
-        <is>
-          <t>subway</t>
-        </is>
-      </c>
-      <c r="J102" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
-      </c>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr"/>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>POINT (551785.6467129305 6860071.747980665)</t>
-        </is>
-      </c>
-      <c r="B103" t="n">
-        <v>2</v>
-      </c>
-      <c r="C103" t="n">
-        <v>822</v>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>Station Diemen Zuid</t>
-        </is>
-      </c>
-      <c r="E103" t="n">
-        <v>4.9567748</v>
-      </c>
-      <c r="F103" t="n">
-        <v>52.3303113</v>
-      </c>
-      <c r="G103" t="inlineStr">
-        <is>
-          <t>(4.9567748, 52.3303113)</t>
-        </is>
-      </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>Metro 53: Centraal Station =&gt; Gaasperplas</t>
-        </is>
-      </c>
-      <c r="I103" t="inlineStr">
-        <is>
-          <t>subway</t>
-        </is>
-      </c>
-      <c r="J103" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
-      </c>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>POINT (552946.8648491914 6859703.574633856)</t>
-        </is>
-      </c>
-      <c r="B104" t="n">
-        <v>2</v>
-      </c>
-      <c r="C104" t="n">
-        <v>54</v>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>Verrijn Stuartweg</t>
-        </is>
-      </c>
-      <c r="E104" t="n">
-        <v>4.9672062</v>
-      </c>
-      <c r="F104" t="n">
-        <v>52.3282901</v>
-      </c>
-      <c r="G104" t="inlineStr">
-        <is>
-          <t>(4.9672062, 52.3282901)</t>
-        </is>
-      </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>Metro 53: Centraal Station =&gt; Gaasperplas</t>
-        </is>
-      </c>
-      <c r="I104" t="inlineStr">
-        <is>
-          <t>subway</t>
-        </is>
-      </c>
-      <c r="J104" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
-      </c>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr"/>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>POINT (553579.2374805408 6858863.571390007)</t>
-        </is>
-      </c>
-      <c r="B105" t="n">
-        <v>2</v>
-      </c>
-      <c r="C105" t="n">
-        <v>56</v>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>Ganzenhoef</t>
-        </is>
-      </c>
-      <c r="E105" t="n">
-        <v>4.9728869</v>
-      </c>
-      <c r="F105" t="n">
-        <v>52.3236783</v>
-      </c>
-      <c r="G105" t="inlineStr">
-        <is>
-          <t>(4.9728869, 52.3236783)</t>
-        </is>
-      </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>Metro 53: Centraal Station =&gt; Gaasperplas</t>
-        </is>
-      </c>
-      <c r="I105" t="inlineStr">
-        <is>
-          <t>subway</t>
-        </is>
-      </c>
-      <c r="J105" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
-      </c>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="inlineStr"/>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>POINT (554260.5572919919 6857643.484120411)</t>
-        </is>
-      </c>
-      <c r="B106" t="n">
-        <v>2</v>
-      </c>
-      <c r="C106" t="n">
-        <v>812</v>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>Kraaiennest</t>
-        </is>
-      </c>
-      <c r="E106" t="n">
-        <v>4.9790073</v>
-      </c>
-      <c r="F106" t="n">
-        <v>52.3169789</v>
-      </c>
-      <c r="G106" t="inlineStr">
-        <is>
-          <t>(4.9790073, 52.3169789)</t>
-        </is>
-      </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>Metro 53: Centraal Station =&gt; Gaasperplas</t>
-        </is>
-      </c>
-      <c r="I106" t="inlineStr">
-        <is>
-          <t>subway</t>
-        </is>
-      </c>
-      <c r="J106" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
-      </c>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="inlineStr"/>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>POINT (554854.0905530034 6856584.175521632)</t>
-        </is>
-      </c>
-      <c r="B107" t="n">
-        <v>2</v>
-      </c>
-      <c r="C107" t="n">
-        <v>61</v>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>Gaasperplas</t>
-        </is>
-      </c>
-      <c r="E107" t="n">
-        <v>4.9843391</v>
-      </c>
-      <c r="F107" t="n">
-        <v>52.3111615</v>
-      </c>
-      <c r="G107" t="inlineStr">
-        <is>
-          <t>(4.9843391, 52.3111615)</t>
-        </is>
-      </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>Metro 53: Centraal Station =&gt; Gaasperplas</t>
-        </is>
-      </c>
-      <c r="I107" t="inlineStr">
-        <is>
-          <t>subway</t>
-        </is>
-      </c>
-      <c r="J107" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
-      </c>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>POINT (554842.658041299 6856646.265439138)</t>
-        </is>
-      </c>
-      <c r="B108" t="n">
-        <v>2</v>
-      </c>
-      <c r="C108" t="n">
-        <v>331</v>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>Gaasperplas</t>
-        </is>
-      </c>
-      <c r="E108" t="n">
-        <v>4.9842364</v>
-      </c>
-      <c r="F108" t="n">
-        <v>52.3115025</v>
-      </c>
-      <c r="G108" t="inlineStr">
-        <is>
-          <t>(4.9842364, 52.3115025)</t>
-        </is>
-      </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>Metro 53: Gaasperplas =&gt; Centraal Station</t>
-        </is>
-      </c>
-      <c r="I108" t="inlineStr">
-        <is>
-          <t>subway</t>
-        </is>
-      </c>
-      <c r="J108" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
-      </c>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>POINT (554280.5168766911 6857654.337591772)</t>
-        </is>
-      </c>
-      <c r="B109" t="n">
-        <v>2</v>
-      </c>
-      <c r="C109" t="n">
-        <v>821</v>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>Kraaiennest</t>
-        </is>
-      </c>
-      <c r="E109" t="n">
-        <v>4.9791866</v>
-      </c>
-      <c r="F109" t="n">
-        <v>52.3170385</v>
-      </c>
-      <c r="G109" t="inlineStr">
-        <is>
-          <t>(4.9791866, 52.3170385)</t>
-        </is>
-      </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>Metro 53: Gaasperplas =&gt; Centraal Station</t>
-        </is>
-      </c>
-      <c r="I109" t="inlineStr">
-        <is>
-          <t>subway</t>
-        </is>
-      </c>
-      <c r="J109" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
-      </c>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="inlineStr"/>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>POINT (553601.3900592086 6858871.840217633)</t>
-        </is>
-      </c>
-      <c r="B110" t="n">
-        <v>2</v>
-      </c>
-      <c r="C110" t="n">
-        <v>301</v>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>Ganzenhoef</t>
-        </is>
-      </c>
-      <c r="E110" t="n">
-        <v>4.9730859</v>
-      </c>
-      <c r="F110" t="n">
-        <v>52.3237237</v>
-      </c>
-      <c r="G110" t="inlineStr">
-        <is>
-          <t>(4.9730859, 52.3237237)</t>
-        </is>
-      </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>Metro 53: Gaasperplas =&gt; Centraal Station</t>
-        </is>
-      </c>
-      <c r="I110" t="inlineStr">
-        <is>
-          <t>subway</t>
-        </is>
-      </c>
-      <c r="J110" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
-      </c>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="inlineStr"/>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>POINT (552961.2250635037 6859717.545678315)</t>
-        </is>
-      </c>
-      <c r="B111" t="n">
-        <v>2</v>
-      </c>
-      <c r="C111" t="n">
-        <v>824</v>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>Verrijn Stuartweg</t>
-        </is>
-      </c>
-      <c r="E111" t="n">
-        <v>4.9673352</v>
-      </c>
-      <c r="F111" t="n">
-        <v>52.3283668</v>
-      </c>
-      <c r="G111" t="inlineStr">
-        <is>
-          <t>(4.9673352, 52.3283668)</t>
-        </is>
-      </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>Metro 53: Gaasperplas =&gt; Centraal Station</t>
-        </is>
-      </c>
-      <c r="I111" t="inlineStr">
-        <is>
-          <t>subway</t>
-        </is>
-      </c>
-      <c r="J111" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
-      </c>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="inlineStr"/>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>POINT (551775.9619172314 6860088.943901429)</t>
-        </is>
-      </c>
-      <c r="B112" t="n">
-        <v>2</v>
-      </c>
-      <c r="C112" t="n">
-        <v>823</v>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>Station Diemen Zuid</t>
-        </is>
-      </c>
-      <c r="E112" t="n">
-        <v>4.9566878</v>
-      </c>
-      <c r="F112" t="n">
-        <v>52.3304057</v>
-      </c>
-      <c r="G112" t="inlineStr">
-        <is>
-          <t>(4.9566878, 52.3304057)</t>
-        </is>
-      </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>Metro 53: Gaasperplas =&gt; Centraal Station</t>
-        </is>
-      </c>
-      <c r="I112" t="inlineStr">
-        <is>
-          <t>subway</t>
-        </is>
-      </c>
-      <c r="J112" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
-      </c>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>POINT (550617.070358328 6859438.092962224)</t>
-        </is>
-      </c>
-      <c r="B113" t="n">
-        <v>2</v>
-      </c>
-      <c r="C113" t="n">
-        <v>829</v>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>Venserpolder</t>
-        </is>
-      </c>
-      <c r="E113" t="n">
-        <v>4.9462773</v>
-      </c>
-      <c r="F113" t="n">
-        <v>52.3268326</v>
-      </c>
-      <c r="G113" t="inlineStr">
-        <is>
-          <t>(4.9462773, 52.3268326)</t>
-        </is>
-      </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>Metro 53: Gaasperplas =&gt; Centraal Station</t>
-        </is>
-      </c>
-      <c r="I113" t="inlineStr">
-        <is>
-          <t>subway</t>
-        </is>
-      </c>
-      <c r="J113" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
-      </c>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="inlineStr"/>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>POINT (548836.7711379185 6859966.806297703)</t>
-        </is>
-      </c>
-      <c r="B114" t="n">
-        <v>2</v>
-      </c>
-      <c r="C114" t="n">
-        <v>827</v>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>Van der Madeweg</t>
-        </is>
-      </c>
-      <c r="E114" t="n">
-        <v>4.9302846</v>
-      </c>
-      <c r="F114" t="n">
-        <v>52.3297352</v>
-      </c>
-      <c r="G114" t="inlineStr">
-        <is>
-          <t>(4.9302846, 52.3297352)</t>
-        </is>
-      </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>Metro 53: Gaasperplas =&gt; Centraal Station</t>
-        </is>
-      </c>
-      <c r="I114" t="inlineStr">
-        <is>
-          <t>subway</t>
-        </is>
-      </c>
-      <c r="J114" t="inlineStr">
-        <is>
-          <t>50, 53, 54</t>
-        </is>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>50, 53, 54</t>
-        </is>
-      </c>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="inlineStr"/>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>POINT (547808.2680985812 6861889.144486921)</t>
-        </is>
-      </c>
-      <c r="B115" t="n">
-        <v>2</v>
-      </c>
-      <c r="C115" t="n">
-        <v>833</v>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>Spaklerweg</t>
-        </is>
-      </c>
-      <c r="E115" t="n">
-        <v>4.9210454</v>
-      </c>
-      <c r="F115" t="n">
-        <v>52.3402871</v>
-      </c>
-      <c r="G115" t="inlineStr">
-        <is>
-          <t>(4.9210454, 52.3402871)</t>
-        </is>
-      </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>Metro 53: Gaasperplas =&gt; Centraal Station</t>
-        </is>
-      </c>
-      <c r="I115" t="inlineStr">
-        <is>
-          <t>subway</t>
-        </is>
-      </c>
-      <c r="J115" t="inlineStr">
-        <is>
-          <t>51, 53, 54</t>
-        </is>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>51, 53, 54</t>
-        </is>
-      </c>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
